--- a/data/trans_camb/IP19C04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C04-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -0,39</t>
+          <t>-12,18; 37,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 3,15</t>
+          <t>-29,26; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,31; -0,38</t>
+          <t>-33,66; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 6,17</t>
+          <t>-9,65; 23,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 6,09</t>
+          <t>-9,57; 22,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 4,05</t>
+          <t>-9,26; 36,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,73</t>
+          <t>-7,64; 19,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 2,92</t>
+          <t>-12,39; 8,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,61; -0,07</t>
+          <t>-10,95; 19,18</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-63,74%</t>
+          <t>119,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-30,03%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-63,26%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>46,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>45,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-20,09%</t>
+          <t>108,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-29,12%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,96%</t>
+          <t>-40,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-46,72%</t>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-88,8; 6,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-75,22; 72,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-88,48; 11,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,86; 189,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,36; 182,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,53; 124,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,35; 32,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,37; 60,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-72,39; 7,08</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-3,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 4,4</t>
+          <t>-10,27; -0,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 4,35</t>
+          <t>-7,94; 3,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 3,31</t>
+          <t>-10,31; -0,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 2,29</t>
+          <t>-4,11; 6,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 4,17</t>
+          <t>-4,72; 6,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,0; -0,24</t>
+          <t>-5,81; 4,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 2,29</t>
+          <t>-5,58; 1,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 2,94</t>
+          <t>-4,83; 2,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 0,21</t>
+          <t>-6,61; -0,07</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,37%</t>
+          <t>-63,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,73%</t>
+          <t>-30,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-28,65%</t>
+          <t>-63,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-46,02%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-13,85%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-71,55%</t>
+          <t>-20,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-32,03%</t>
+          <t>-29,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-13,72%</t>
+          <t>-14,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-53,91%</t>
+          <t>-46,72%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,85; 240,16</t>
+          <t>-88,8; 6,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-70,49; 287,45</t>
+          <t>-75,22; 72,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,77; 199,84</t>
+          <t>-88,48; 11,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-88,99; 91,16</t>
+          <t>-52,86; 189,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-76,36; 103,56</t>
+          <t>-57,36; 182,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-93,68; 41,62</t>
+          <t>-67,53; 124,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-72,74; 71,91</t>
+          <t>-63,35; 32,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-62,95; 81,27</t>
+          <t>-55,37; 60,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-83,07; 12,24</t>
+          <t>-72,39; 7,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-1,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 37,48</t>
+          <t>-9,32; 4,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 0,0</t>
+          <t>-11,66; 0,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 0,0</t>
+          <t>-11,38; 1,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 23,25</t>
+          <t>-0,04; 12,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 22,92</t>
+          <t>-4,82; 5,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 36,79</t>
+          <t>-3,36; 6,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 19,88</t>
+          <t>-3,37; 5,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 8,05</t>
+          <t>-6,82; 0,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 19,18</t>
+          <t>-5,98; 2,34</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>119,18%</t>
+          <t>-25,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-59,88%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-53,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>160,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>45,53%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>108,89%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-40,74%</t>
+          <t>-42,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>-26,65%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,53; 90,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,1; 27,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,03; 40,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,46; 1102,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,55; 438,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,57; 599,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,04; 127,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,26; 30,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,48; 59,73</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-2,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 4,33</t>
+          <t>-5,46; 4,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 0,61</t>
+          <t>-4,93; 4,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 1,18</t>
+          <t>-5,7; 3,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 12,84</t>
+          <t>-8,6; 2,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 5,26</t>
+          <t>-7,24; 4,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 6,81</t>
+          <t>-10,0; -0,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 5,83</t>
+          <t>-5,44; 2,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 0,92</t>
+          <t>-4,91; 2,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,34</t>
+          <t>-6,86; 0,21</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-25,11%</t>
+          <t>-11,37%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-59,88%</t>
+          <t>-12,73%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-53,28%</t>
+          <t>-28,65%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>160,29%</t>
+          <t>-46,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>-13,85%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>45,75%</t>
+          <t>-71,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>-32,03%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-42,18%</t>
+          <t>-13,72%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-26,65%</t>
+          <t>-53,91%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-73,53; 90,29</t>
+          <t>-80,85; 240,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-91,1; 27,97</t>
+          <t>-70,49; 287,45</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-84,03; 40,78</t>
+          <t>-84,77; 199,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 1102,02</t>
+          <t>-88,99; 91,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-82,55; 438,18</t>
+          <t>-76,36; 103,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-68,57; 599,57</t>
+          <t>-93,68; 41,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-39,04; 127,38</t>
+          <t>-72,74; 71,91</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-76,26; 30,64</t>
+          <t>-62,95; 81,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-67,48; 59,73</t>
+          <t>-83,07; 12,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C04-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 37,48</t>
+          <t>-13,58; 36,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 0,0</t>
+          <t>-31,02; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 0,0</t>
+          <t>-33,94; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 23,25</t>
+          <t>-9,44; 23,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 22,92</t>
+          <t>-9,57; 23,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 36,79</t>
+          <t>-9,35; 33,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 19,88</t>
+          <t>-6,63; 22,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 8,05</t>
+          <t>-11,41; 9,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 19,18</t>
+          <t>-8,59; 23,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 11,28</t>
+          <t>-5,02; 11,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 1,4</t>
+          <t>-10,22; 0,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 0,38</t>
+          <t>-10,3; 0,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 4,9</t>
+          <t>-9,18; 5,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 3,79</t>
+          <t>-10,25; 3,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 5,51</t>
+          <t>-8,58; 5,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 6,38</t>
+          <t>-4,64; 6,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 0,47</t>
+          <t>-8,89; 0,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 1,45</t>
+          <t>-7,95; 1,09</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,73; 300,53</t>
+          <t>-48,12; 379,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 120,82</t>
+          <t>-100,0; 68,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 39,03</t>
+          <t>-92,8; 75,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-84,27; 308,46</t>
+          <t>-87,16; 233,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 261,07</t>
+          <t>-100,0; 142,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-80,51; 203,29</t>
+          <t>-76,15; 239,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,64; 163,86</t>
+          <t>-51,16; 142,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,02; 26,37</t>
+          <t>-88,47; 15,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,97; 50,07</t>
+          <t>-78,77; 30,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -0,39</t>
+          <t>-9,84; -0,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 3,15</t>
+          <t>-7,75; 3,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,31; -0,38</t>
+          <t>-10,21; -0,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 6,17</t>
+          <t>-4,19; 6,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 6,09</t>
+          <t>-5,05; 5,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 4,05</t>
+          <t>-6,27; 4,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,73</t>
+          <t>-5,72; 1,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 2,92</t>
+          <t>-4,81; 2,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,61; -0,07</t>
+          <t>-7,11; 0,01</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-88,8; 6,6</t>
+          <t>-89,1; 18,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,22; 72,5</t>
+          <t>-74,51; 81,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-88,48; 11,22</t>
+          <t>-87,87; -1,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-52,86; 189,4</t>
+          <t>-48,06; 201,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,36; 182,04</t>
+          <t>-57,96; 159,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,53; 124,14</t>
+          <t>-70,54; 153,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,35; 32,79</t>
+          <t>-63,06; 33,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,37; 60,29</t>
+          <t>-53,53; 51,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-72,39; 7,08</t>
+          <t>-75,3; 1,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 4,33</t>
+          <t>-9,27; 4,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 0,61</t>
+          <t>-11,79; 0,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 1,18</t>
+          <t>-11,4; 1,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 12,84</t>
+          <t>-0,02; 12,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 5,26</t>
+          <t>-5,04; 4,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 6,81</t>
+          <t>-3,81; 7,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 5,83</t>
+          <t>-3,61; 5,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 0,92</t>
+          <t>-7,13; 1,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,34</t>
+          <t>-6,15; 2,45</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-73,53; 90,29</t>
+          <t>-73,41; 90,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-91,1; 27,97</t>
+          <t>-91,07; 56,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-84,03; 40,78</t>
+          <t>-85,12; 39,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 1102,02</t>
+          <t>-21,48; 963,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-82,55; 438,18</t>
+          <t>-85,04; 391,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,57; 599,57</t>
+          <t>-69,45; 647,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,04; 127,38</t>
+          <t>-42,84; 142,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-76,26; 30,64</t>
+          <t>-77,75; 25,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-67,48; 59,73</t>
+          <t>-67,8; 66,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 4,4</t>
+          <t>-5,54; 4,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 4,35</t>
+          <t>-5,36; 3,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 3,31</t>
+          <t>-6,12; 3,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 2,29</t>
+          <t>-8,7; 2,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 4,17</t>
+          <t>-6,91; 4,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,0; -0,24</t>
+          <t>-10,26; -0,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 2,29</t>
+          <t>-5,54; 2,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 2,94</t>
+          <t>-4,49; 2,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 0,21</t>
+          <t>-6,3; 0,09</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-80,85; 240,16</t>
+          <t>-82,67; 309,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-70,49; 287,45</t>
+          <t>-77,99; 224,06</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-84,77; 199,84</t>
+          <t>-84,32; 182,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-88,99; 91,16</t>
+          <t>-87,68; 79,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,36; 103,56</t>
+          <t>-75,56; 121,33</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-93,68; 41,62</t>
+          <t>-100,0; 41,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-72,74; 71,91</t>
+          <t>-73,97; 60,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-62,95; 81,27</t>
+          <t>-60,44; 90,57</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,07; 12,24</t>
+          <t>-82,14; 14,9</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,71</t>
+          <t>-4,15; 1,62</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,93; -0,43</t>
+          <t>-5,83; -0,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,65; -1,43</t>
+          <t>-6,78; -1,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,54</t>
+          <t>-2,48; 3,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 2,24</t>
+          <t>-3,38; 2,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,67</t>
+          <t>-3,82; 1,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,96</t>
+          <t>-2,74; 1,66</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,04</t>
+          <t>-3,74; 0,12</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,39; -0,73</t>
+          <t>-4,65; -0,89</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-48,69; 29,63</t>
+          <t>-50,34; 32,26</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-69,79; -6,4</t>
+          <t>-67,59; -8,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-75,28; -23,82</t>
+          <t>-73,84; -21,05</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 76,42</t>
+          <t>-36,27; 72,02</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 51,72</t>
+          <t>-46,74; 48,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-54,04; 42,28</t>
+          <t>-53,76; 28,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 34,52</t>
+          <t>-35,49; 31,84</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 1,12</t>
+          <t>-51,87; 2,69</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-58,97; -12,78</t>
+          <t>-60,41; -15,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C04-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 36,14</t>
+          <t>-12,72; 32,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 0,0</t>
+          <t>-33,87; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,94; 0,0</t>
+          <t>-34,45; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 23,0</t>
+          <t>-9,49; 21,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 23,75</t>
+          <t>-9,63; 22,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 33,16</t>
+          <t>-9,4; 29,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 22,34</t>
+          <t>-8,19; 22,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 9,56</t>
+          <t>-12,26; 7,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 23,09</t>
+          <t>-10,87; 16,78</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 11,73</t>
+          <t>-4,07; 12,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 0,72</t>
+          <t>-10,7; 0,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 0,41</t>
+          <t>-11,78; -0,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 5,24</t>
+          <t>-10,03; 4,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 3,68</t>
+          <t>-10,87; 2,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 5,82</t>
+          <t>-8,44; 6,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 6,26</t>
+          <t>-4,39; 6,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 0,09</t>
+          <t>-8,74; 0,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 1,09</t>
+          <t>-7,92; 0,9</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,12; 379,71</t>
+          <t>-46,55; 325,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 68,89</t>
+          <t>-100,0; 76,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-92,8; 75,04</t>
+          <t>-100,0; 26,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-87,16; 233,86</t>
+          <t>-88,66; 184,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 142,0</t>
+          <t>-100,0; 122,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,15; 239,83</t>
+          <t>-78,64; 201,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,16; 142,52</t>
+          <t>-47,13; 139,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-88,47; 15,32</t>
+          <t>-87,9; 13,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-78,77; 30,41</t>
+          <t>-77,7; 36,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,84; -0,23</t>
+          <t>-9,88; -0,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 3,52</t>
+          <t>-7,93; 3,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -0,63</t>
+          <t>-10,3; -0,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 6,62</t>
+          <t>-4,0; 6,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 5,56</t>
+          <t>-4,75; 5,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 4,07</t>
+          <t>-5,9; 4,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 1,31</t>
+          <t>-5,68; 1,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 2,64</t>
+          <t>-4,68; 2,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 0,01</t>
+          <t>-6,8; 0,14</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-89,1; 18,2</t>
+          <t>-88,48; 5,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,51; 81,47</t>
+          <t>-74,45; 83,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,87; -1,32</t>
+          <t>-87,64; 15,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,06; 201,68</t>
+          <t>-50,53; 194,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,96; 159,3</t>
+          <t>-54,16; 153,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,54; 153,87</t>
+          <t>-68,07; 139,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,06; 33,1</t>
+          <t>-63,09; 28,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,53; 51,8</t>
+          <t>-53,85; 57,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,3; 1,37</t>
+          <t>-73,47; 5,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 4,26</t>
+          <t>-9,75; 3,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 0,94</t>
+          <t>-12,03; 0,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 1,16</t>
+          <t>-11,55; 0,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 12,23</t>
+          <t>-0,44; 12,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 4,88</t>
+          <t>-4,9; 4,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 7,1</t>
+          <t>-3,28; 7,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 5,98</t>
+          <t>-2,98; 6,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 1,03</t>
+          <t>-6,57; 1,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 2,45</t>
+          <t>-6,32; 2,07</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-73,41; 90,49</t>
+          <t>-74,16; 90,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-91,07; 56,46</t>
+          <t>-90,61; 47,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-85,12; 39,02</t>
+          <t>-86,41; 27,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 963,59</t>
+          <t>-24,16; 949,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-85,04; 391,01</t>
+          <t>-85,54; 418,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,45; 647,86</t>
+          <t>-63,8; 577,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,84; 142,97</t>
+          <t>-36,39; 164,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-77,75; 25,48</t>
+          <t>-76,03; 47,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-67,8; 66,22</t>
+          <t>-68,35; 49,23</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 4,94</t>
+          <t>-5,38; 4,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,79</t>
+          <t>-5,55; 3,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 3,12</t>
+          <t>-6,19; 2,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 2,13</t>
+          <t>-8,61; 2,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 4,11</t>
+          <t>-6,95; 4,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -0,58</t>
+          <t>-10,22; -0,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 2,03</t>
+          <t>-5,57; 1,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,99</t>
+          <t>-4,49; 2,9</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 0,09</t>
+          <t>-6,38; 0,44</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-82,67; 309,17</t>
+          <t>-78,11; 270,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-77,99; 224,06</t>
+          <t>-78,73; 214,91</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-84,32; 182,26</t>
+          <t>-83,5; 196,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-87,68; 79,37</t>
+          <t>-87,28; 88,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-75,56; 121,33</t>
+          <t>-70,57; 137,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 41,93</t>
+          <t>-97,38; 40,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-73,97; 60,8</t>
+          <t>-74,13; 56,12</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-60,44; 90,57</t>
+          <t>-59,31; 88,86</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-82,14; 14,9</t>
+          <t>-82,31; 17,39</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,62</t>
+          <t>-4,45; 1,79</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -0,54</t>
+          <t>-5,98; -0,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -1,37</t>
+          <t>-6,59; -1,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 3,18</t>
+          <t>-2,19; 3,45</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,07</t>
+          <t>-3,23; 2,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,29</t>
+          <t>-4,03; 1,35</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,66</t>
+          <t>-2,6; 1,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,12</t>
+          <t>-3,83; -0,08</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -0,89</t>
+          <t>-4,41; -0,79</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-50,34; 32,26</t>
+          <t>-50,45; 36,08</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-67,59; -8,3</t>
+          <t>-68,76; -6,54</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-73,84; -21,05</t>
+          <t>-74,36; -19,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 72,02</t>
+          <t>-31,21; 77,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 48,99</t>
+          <t>-44,75; 47,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-53,76; 28,8</t>
+          <t>-54,77; 28,67</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 31,84</t>
+          <t>-34,64; 27,45</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 2,69</t>
+          <t>-50,9; -1,38</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-60,41; -15,47</t>
+          <t>-59,31; -13,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C04-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-2,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 32,52</t>
+          <t>-7,55; 4,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 0,0</t>
+          <t>-8,18; 4,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 0,0</t>
+          <t>-6,24; 7,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 21,99</t>
+          <t>-2,96; 12,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 22,69</t>
+          <t>-11,21; -0,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 29,85</t>
+          <t>-10,63; -0,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 22,04</t>
+          <t>-3,07; 7,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 7,26</t>
+          <t>-8,0; 0,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 16,78</t>
+          <t>-6,67; 1,38</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>119,18%</t>
+          <t>-21,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-31,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>61,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,53%</t>
+          <t>-72,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>108,89%</t>
+          <t>-70,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-40,74%</t>
+          <t>-53,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>-38,37%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,45; 148,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,49; 156,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,26; 256,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,4; 337,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 37,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,04; 27,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,92; 174,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,79; 21,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,69; 43,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-2,99</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 12,26</t>
+          <t>-4,11; 6,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 0,82</t>
+          <t>-4,72; 6,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,78; -0,12</t>
+          <t>-5,11; 5,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 4,64</t>
+          <t>-10,27; -0,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 2,94</t>
+          <t>-7,94; 3,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 6,04</t>
+          <t>-10,23; -0,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 6,24</t>
+          <t>-5,58; 1,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 0,06</t>
+          <t>-4,83; 2,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 0,9</t>
+          <t>-6,32; 0,4</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,86%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-65,97%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-66,98%</t>
+          <t>-8,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-33,59%</t>
+          <t>-63,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-46,29%</t>
+          <t>-30,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,23%</t>
+          <t>-62,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>-29,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-56,51%</t>
+          <t>-14,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-42,44%</t>
+          <t>-42,37%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,55; 325,13</t>
+          <t>-52,86; 189,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 76,84</t>
+          <t>-57,36; 182,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 26,38</t>
+          <t>-63,37; 189,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-88,66; 184,84</t>
+          <t>-88,8; 6,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 122,31</t>
+          <t>-75,22; 72,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,64; 201,71</t>
+          <t>-88,02; 12,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 139,87</t>
+          <t>-63,35; 32,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,9; 13,76</t>
+          <t>-55,37; 60,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-77,7; 36,1</t>
+          <t>-71,27; 13,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-1,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -0,77</t>
+          <t>-0,04; 12,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 3,34</t>
+          <t>-4,82; 5,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,3; -0,09</t>
+          <t>-3,71; 6,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 6,73</t>
+          <t>-9,32; 4,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 5,38</t>
+          <t>-11,66; 0,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 4,05</t>
+          <t>-11,34; 1,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 1,24</t>
+          <t>-3,37; 5,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,9</t>
+          <t>-6,82; 0,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 0,14</t>
+          <t>-5,92; 2,16</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-63,74%</t>
+          <t>160,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-30,03%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-63,26%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>-25,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>-59,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,09%</t>
+          <t>-52,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-29,12%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-14,96%</t>
+          <t>-42,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-46,72%</t>
+          <t>-28,95%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-88,48; 5,04</t>
+          <t>-17,46; 1102,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,45; 83,7</t>
+          <t>-82,55; 438,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,64; 15,8</t>
+          <t>-70,16; 508,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,53; 194,97</t>
+          <t>-73,53; 90,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 153,22</t>
+          <t>-91,1; 27,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,07; 139,95</t>
+          <t>-83,57; 40,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,09; 28,02</t>
+          <t>-39,04; 127,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,85; 57,16</t>
+          <t>-76,26; 30,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-73,47; 5,11</t>
+          <t>-68,24; 55,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-2,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 3,86</t>
+          <t>-8,6; 2,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 0,67</t>
+          <t>-7,24; 4,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 0,65</t>
+          <t>-10,02; -0,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 12,62</t>
+          <t>-5,46; 4,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 4,69</t>
+          <t>-4,93; 4,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 7,01</t>
+          <t>-5,61; 3,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 6,62</t>
+          <t>-5,44; 2,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 1,64</t>
+          <t>-4,91; 2,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 2,07</t>
+          <t>-6,86; 0,32</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-25,11%</t>
+          <t>-46,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-59,88%</t>
+          <t>-13,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-53,28%</t>
+          <t>-71,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>160,29%</t>
+          <t>-11,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>-12,73%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>45,75%</t>
+          <t>-25,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>-32,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-42,18%</t>
+          <t>-13,72%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-26,65%</t>
+          <t>-52,34%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-74,16; 90,13</t>
+          <t>-88,99; 91,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-90,61; 47,35</t>
+          <t>-76,36; 103,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-86,41; 27,85</t>
+          <t>-93,57; 43,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 949,46</t>
+          <t>-80,85; 240,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-85,54; 418,51</t>
+          <t>-70,49; 287,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,8; 577,75</t>
+          <t>-83,94; 212,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,39; 164,1</t>
+          <t>-72,74; 71,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-76,03; 47,13</t>
+          <t>-62,95; 81,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-68,35; 49,23</t>
+          <t>-82,38; 20,8</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-2,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 4,93</t>
+          <t>-2,42; 3,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 3,51</t>
+          <t>-3,16; 2,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 2,7</t>
+          <t>-3,8; 2,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 2,42</t>
+          <t>-4,2; 1,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 4,46</t>
+          <t>-5,93; -0,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,22; -0,03</t>
+          <t>-6,55; -1,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 1,78</t>
+          <t>-2,47; 1,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,9</t>
+          <t>-4,08; 0,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 0,44</t>
+          <t>-4,33; -0,66</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-11,37%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-12,73%</t>
+          <t>-9,68%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-28,65%</t>
+          <t>-19,74%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-46,02%</t>
+          <t>-19,07%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-13,85%</t>
+          <t>-44,67%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-71,55%</t>
+          <t>-54,51%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-32,03%</t>
+          <t>-7,33%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-13,72%</t>
+          <t>-29,03%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-53,91%</t>
+          <t>-40,08%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-78,11; 270,68</t>
+          <t>-33,59; 76,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-78,73; 214,91</t>
+          <t>-44,75; 51,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,5; 196,46</t>
+          <t>-52,89; 48,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-87,28; 88,1</t>
+          <t>-48,69; 29,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-70,57; 137,59</t>
+          <t>-69,79; -6,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-97,38; 40,24</t>
+          <t>-74,94; -23,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-74,13; 56,12</t>
+          <t>-32,88; 34,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-59,31; 88,86</t>
+          <t>-52,74; 1,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-82,31; 17,39</t>
+          <t>-58,68; -11,61</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-3,92</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-1,31</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,88</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-2,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-4,45; 1,79</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-5,98; -0,57</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; -1,32</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 3,45</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,23; 2,1</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-4,03; 1,35</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-2,6; 1,56</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; -0,08</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-4,41; -0,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-19,07%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-44,67%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-55,4%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>7,35%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-9,68%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-22,34%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-7,33%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-29,03%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-41,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-50,45; 36,08</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-68,76; -6,54</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-74,36; -19,67</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-31,21; 77,66</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-44,75; 47,39</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-54,77; 28,67</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-34,64; 27,45</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-50,9; -1,38</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-59,31; -13,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
